--- a/Player_Data/Lakia_Player_Data.xlsx
+++ b/Player_Data/Lakia_Player_Data.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(6) 50%</t>
+          <t xml:space="preserve"> 50</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -536,10 +536,8 @@
       <c r="F2" t="n">
         <v>125.3</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>76%</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0.76</v>
       </c>
       <c r="H2" t="n">
         <v>0.63</v>
@@ -572,7 +570,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(3) 25%</t>
+          <t xml:space="preserve"> 25</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -590,10 +588,8 @@
       <c r="F3" t="n">
         <v>94.8</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>63%</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0.63</v>
       </c>
       <c r="H3" t="n">
         <v>0.52</v>
@@ -626,7 +622,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(2) 17%</t>
+          <t xml:space="preserve"> 17</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -644,10 +640,8 @@
       <c r="F4" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>63%</t>
-        </is>
+      <c r="G4" t="n">
+        <v>0.63</v>
       </c>
       <c r="H4" t="n">
         <v>0.45</v>
@@ -680,7 +674,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(1) 8%</t>
+          <t xml:space="preserve"> 8</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -698,10 +692,8 @@
       <c r="F5" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
+      <c r="G5" t="n">
+        <v>0.67</v>
       </c>
       <c r="H5" t="n">
         <v>0.29</v>

--- a/Player_Data/Lakia_Player_Data.xlsx
+++ b/Player_Data/Lakia_Player_Data.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50</t>
+          <t xml:space="preserve"> 46</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -570,59 +570,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25</t>
+          <t xml:space="preserve"> 31</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="D3" t="n">
-        <v>153</v>
+        <v>157.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="F3" t="n">
-        <v>94.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I3" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="J3" t="n">
         <v>0.03</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="L3" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M3" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="N3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17</t>
+          <t xml:space="preserve"> 15</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/Player_Data/Lakia_Player_Data.xlsx
+++ b/Player_Data/Lakia_Player_Data.xlsx
@@ -518,59 +518,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46</t>
+          <t xml:space="preserve"> 47</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="D2" t="n">
-        <v>184</v>
+        <v>181.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F2" t="n">
-        <v>125.3</v>
+        <v>126.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="H2" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I2" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="J2" t="n">
         <v>0.08</v>
       </c>
       <c r="K2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="L2" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M2" t="n">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="N2" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31</t>
+          <t xml:space="preserve"> 27</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15</t>
+          <t xml:space="preserve"> 13</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -674,50 +674,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8</t>
+          <t xml:space="preserve"> 13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>0.49</v>
+        <v>0.88</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="E5" t="n">
-        <v>0.39</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>73.40000000000001</v>
+        <v>102.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="H5" t="n">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
       <c r="I5" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.04</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.08</v>
-      </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M5" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
